--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -758,7 +758,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI34" sqref="AI34"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -797,8 +797,8 @@
     <col min="32" max="32" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" customWidth="1"/>
     <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -968,11 +968,9 @@
         <v>132</v>
       </c>
       <c r="AI2" s="8">
-        <f>1+5/4</f>
         <v>2.25</v>
       </c>
       <c r="AJ2" s="8">
-        <f>1+3/4</f>
         <v>1.75</v>
       </c>
     </row>
@@ -1017,12 +1015,10 @@
         <v>18</v>
       </c>
       <c r="AI3" s="8">
-        <f>16/5+1</f>
         <v>4.2</v>
       </c>
       <c r="AJ3" s="8">
-        <f>1+2/7</f>
-        <v>1.2857142857142856</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -1066,12 +1062,10 @@
         <v>84</v>
       </c>
       <c r="AI4" s="8">
-        <f>1+15/8</f>
-        <v>2.875</v>
+        <v>2.88</v>
       </c>
       <c r="AJ4" s="8">
-        <f>1+8/15</f>
-        <v>1.5333333333333332</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
@@ -1115,8 +1109,7 @@
         <v>75</v>
       </c>
       <c r="AI5" s="8">
-        <f>1+5/12</f>
-        <v>1.4166666666666667</v>
+        <v>1.41</v>
       </c>
       <c r="AJ5" s="8">
         <f>1+21/10</f>
@@ -1164,8 +1157,7 @@
         <v>61</v>
       </c>
       <c r="AI6" s="8">
-        <f>1+4/9</f>
-        <v>1.4444444444444444</v>
+        <v>1.44</v>
       </c>
       <c r="AJ6" s="8">
         <f>1+2</f>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="126">
   <si>
     <t>ATP</t>
   </si>
@@ -395,6 +395,9 @@
   <si>
     <t>Sousa J.</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
 </sst>
 </file>
 
@@ -755,10 +758,10 @@
   <dimension ref="A1:AN2659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,22 +959,43 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
       <c r="L2">
+        <v>132</v>
+      </c>
+      <c r="M2">
         <v>56</v>
       </c>
-      <c r="M2">
-        <v>132</v>
+      <c r="P2" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>3</v>
+      </c>
+      <c r="R2" s="8">
+        <v>6</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>125</v>
       </c>
       <c r="AI2" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="AJ2" s="8">
         <v>2.25</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>1.75</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -1003,22 +1027,43 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
         <v>90</v>
       </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
       <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
         <v>67</v>
       </c>
-      <c r="M3">
-        <v>18</v>
+      <c r="P3" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>6</v>
+      </c>
+      <c r="S3" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>125</v>
       </c>
       <c r="AI3" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="AJ3" s="8">
         <v>4.2</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>1.29</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -1107,6 +1152,27 @@
       </c>
       <c r="M5">
         <v>75</v>
+      </c>
+      <c r="P5" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>3</v>
+      </c>
+      <c r="R5" s="8">
+        <v>6</v>
+      </c>
+      <c r="S5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>125</v>
       </c>
       <c r="AI5" s="8">
         <v>1.41</v>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="234">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -673,7 +673,55 @@
     <t xml:space="preserve">Carreno Busta P.</t>
   </si>
   <si>
-    <t xml:space="preserve">De Minaur A.</t>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Slam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadal R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federer R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilic M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomic B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molleker R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipsarevic J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monfils G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evans D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ito T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laaksonen H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delbonis F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travaglia S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troicki V.</t>
   </si>
 </sst>
 </file>
@@ -794,34 +842,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN200"/>
+  <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E191" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A164" activeCellId="0" sqref="A164"/>
-      <selection pane="bottomRight" activeCell="I180" activeCellId="0" sqref="I180"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
+      <selection pane="bottomRight" activeCell="J231" activeCellId="0" sqref="J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.45408163265306"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.45408163265306"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -832,17 +879,18 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.59183673469388"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14702,7 +14750,7 @@
         <v>3</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="K198" s="0" t="s">
         <v>114</v>
@@ -14875,6 +14923,2506 @@
       </c>
       <c r="AD200" s="0" t="n">
         <v>1.69</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J201" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="K201" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q201" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z201" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC201" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD201" s="0" t="n">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J202" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K202" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M202" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U202" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC202" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD202" s="0" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J203" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M203" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="P203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q203" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S203" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U203" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z203" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB203" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC203" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD203" s="0" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J204" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K204" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="L204" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M204" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P204" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q204" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R204" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S204" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T204" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U204" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z204" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC204" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD204" s="0" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J205" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K205" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P205" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q205" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R205" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S205" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U205" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V205" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W205" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z205" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA205" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB205" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC205" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD205" s="0" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J206" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K206" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P206" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S206" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U206" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W206" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z206" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB206" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC206" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD206" s="0" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J207" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K207" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P207" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q207" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T207" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z207" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB207" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC207" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD207" s="0" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J208" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="K208" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="P208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q208" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S208" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U208" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V208" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z208" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA208" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB208" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC208" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD208" s="0" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J209" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K209" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="L209" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M209" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="P209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S209" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T209" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB209" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC209" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD209" s="0" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J210" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K210" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L210" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M210" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="P210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q210" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R210" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T210" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W210" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z210" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA210" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB210" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC210" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD210" s="0" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J211" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L211" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M211" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P211" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S211" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U211" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W211" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z211" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA211" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB211" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC211" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD211" s="0" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J212" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K212" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="L212" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M212" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="P212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q212" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S212" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U212" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W212" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y212" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z212" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA212" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB212" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC212" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD212" s="0" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J213" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K213" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L213" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M213" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="P213" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q213" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R213" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S213" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T213" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U213" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z213" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC213" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD213" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I214" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J214" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="K214" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="L214" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="M214" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="P214" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q214" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S214" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T214" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U214" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z214" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC214" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD214" s="0" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J215" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K215" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="L215" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M215" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="P215" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S215" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T215" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC215" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD215" s="0" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I216" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J216" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K216" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="L216" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="M216" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W216" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z216" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA216" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB216" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC216" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD216" s="0" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J217" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K217" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L217" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="M217" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="P217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U217" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V217" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W217" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA217" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB217" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC217" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD217" s="0" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I218" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J218" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K218" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="L218" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="M218" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P218" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q218" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R218" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S218" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T218" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U218" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z218" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC218" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD218" s="0" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J219" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="K219" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="L219" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="M219" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P219" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S219" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U219" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W219" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z219" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA219" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB219" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC219" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD219" s="0" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J220" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K220" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="L220" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="M220" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="P220" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R220" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S220" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T220" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U220" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z220" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC220" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD220" s="0" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J221" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="K221" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="L221" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M221" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="P221" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q221" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S221" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T221" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U221" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V221" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W221" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z221" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA221" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB221" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC221" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD221" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J222" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="L222" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M222" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q222" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R222" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U222" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z222" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC222" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD222" s="0" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J223" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="K223" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L223" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="M223" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="P223" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S223" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T223" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z223" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC223" s="0" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD223" s="0" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J224" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="K224" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L224" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="M224" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="P224" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q224" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U224" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W224" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y224" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z224" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA224" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB224" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC224" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD224" s="0" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J225" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K225" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L225" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="M225" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="P225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q225" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R225" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T225" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W225" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z225" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA225" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB225" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC225" s="0" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD225" s="0" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D226" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J226" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K226" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="L226" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="M226" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="P226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q226" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S226" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T226" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W226" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z226" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA226" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB226" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC226" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD226" s="0" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I227" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J227" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K227" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="L227" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M227" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="P227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q227" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R227" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T227" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W227" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z227" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA227" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB227" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC227" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD227" s="0" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J228" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L228" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="M228" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="P228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q228" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T228" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W228" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z228" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA228" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB228" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC228" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD228" s="0" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="L229" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="M229" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P229" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q229" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R229" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S229" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T229" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U229" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z229" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC229" s="0" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD229" s="0" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L230" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M230" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="P230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q230" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R230" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S230" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T230" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U230" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z230" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC230" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD230" s="0" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G231" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J231" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K231" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="L231" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="M231" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q231" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S231" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U231" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W231" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z231" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA231" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB231" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC231" s="0" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD231" s="0" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>43479</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J232" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K232" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L232" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="M232" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="P232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T232" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X232" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y232" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z232" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA232" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB232" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC232" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD232" s="0" t="n">
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="246">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -722,6 +722,42 @@
   </si>
   <si>
     <t xml:space="preserve">Troicki V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krueger M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zverev A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majchrzak K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coric B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krajinovic F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanni L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kukushkin M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Z.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sock J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakharov G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zverev M.</t>
   </si>
 </sst>
 </file>
@@ -842,33 +878,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN232"/>
+  <dimension ref="A1:AN264"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I221" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
-      <selection pane="bottomRight" activeCell="J231" activeCellId="0" sqref="J231"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A221" activeCellId="0" sqref="A221"/>
+      <selection pane="bottomRight" activeCell="J264" activeCellId="0" sqref="J264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.32142857142857"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.32142857142857"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -879,18 +915,17 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.45408163265306"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17423,6 +17458,2476 @@
       </c>
       <c r="AD232" s="0" t="n">
         <v>3.35</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J233" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K233" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="L233" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="P233" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q233" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R233" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S233" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T233" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U233" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z233" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC233" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD233" s="0" t="n">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D234" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J234" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K234" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L234" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M234" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="P234" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q234" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R234" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T234" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U234" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z234" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC234" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD234" s="0" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J235" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="K235" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M235" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="P235" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q235" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R235" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S235" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T235" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U235" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W235" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X235" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y235" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z235" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA235" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB235" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC235" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD235" s="0" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J236" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K236" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="P236" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S236" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X236" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB236" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC236" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD236" s="0" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D237" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J237" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K237" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M237" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="P237" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q237" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S237" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T237" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U237" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z237" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC237" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD237" s="0" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J238" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="K238" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M238" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="P238" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q238" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R238" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S238" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T238" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U238" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z238" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC238" s="0" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD238" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G239" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J239" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K239" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="L239" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M239" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="P239" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R239" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S239" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T239" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z239" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC239" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD239" s="0" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J240" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K240" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L240" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M240" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="P240" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q240" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R240" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S240" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T240" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U240" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z240" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC240" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD240" s="0" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G241" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L241" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="M241" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P241" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U241" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V241" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X241" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y241" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z241" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA241" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB241" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC241" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD241" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J242" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K242" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M242" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="P242" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S242" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T242" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U242" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z242" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC242" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD242" s="0" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G243" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K243" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M243" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="P243" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q243" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R243" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S243" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T243" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U243" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V243" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W243" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X243" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y243" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z243" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA243" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB243" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC243" s="0" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD243" s="0" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I244" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J244" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K244" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L244" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M244" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="P244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q244" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S244" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U244" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W244" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X244" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y244" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z244" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA244" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB244" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC244" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD244" s="0" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K245" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="M245" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="P245" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q245" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R245" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S245" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T245" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U245" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z245" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I246" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J246" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K246" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="L246" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="M246" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="P246" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q246" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R246" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S246" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T246" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U246" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z246" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB246" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC246" s="0" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD246" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J247" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="K247" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M247" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="P247" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q247" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R247" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S247" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T247" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U247" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z247" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC247" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD247" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D248" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G248" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J248" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K248" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M248" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="P248" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q248" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R248" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S248" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T248" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U248" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z248" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC248" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD248" s="0" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D249" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J249" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="K249" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="M249" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="P249" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q249" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R249" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S249" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T249" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U249" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V249" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W249" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z249" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA249" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB249" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC249" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AD249" s="0" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D250" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J250" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K250" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L250" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="M250" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P250" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R250" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U250" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W250" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X250" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z250" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA250" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB250" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC250" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD250" s="0" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K251" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M251" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="P251" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q251" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R251" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S251" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T251" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U251" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z251" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC251" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD251" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D252" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G252" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L252" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="M252" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="P252" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q252" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R252" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S252" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z252" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB252" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC252" s="0" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AD252" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D253" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G253" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J253" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K253" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L253" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="M253" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="P253" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q253" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R253" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S253" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T253" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U253" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V253" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W253" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z253" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA253" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB253" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC253" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD253" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D254" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J254" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K254" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M254" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P254" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q254" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S254" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T254" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U254" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V254" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W254" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z254" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA254" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB254" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D255" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J255" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="K255" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="L255" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="M255" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P255" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S255" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T255" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U255" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z255" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC255" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD255" s="0" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D256" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J256" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K256" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="M256" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="P256" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q256" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R256" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S256" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T256" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U256" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V256" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W256" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z256" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA256" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB256" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC256" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD256" s="0" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D257" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G257" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J257" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K257" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L257" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="M257" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="P257" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q257" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R257" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S257" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T257" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U257" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V257" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W257" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA257" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB257" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC257" s="0" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD257" s="0" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D258" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I258" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J258" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K258" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="L258" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M258" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="P258" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q258" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R258" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S258" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T258" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U258" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V258" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W258" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z258" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA258" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB258" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC258" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD258" s="0" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D259" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G259" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J259" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K259" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="L259" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="M259" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P259" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q259" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R259" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S259" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T259" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U259" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z259" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA259" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC259" s="0" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD259" s="0" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D260" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I260" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L260" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="M260" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P260" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q260" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R260" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S260" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T260" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U260" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V260" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W260" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z260" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA260" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB260" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC260" s="0" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD260" s="0" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D261" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I261" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J261" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K261" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="L261" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="M261" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P261" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q261" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R261" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S261" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T261" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U261" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z261" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA261" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC261" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD261" s="0" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D262" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I262" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J262" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K262" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L262" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="M262" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P262" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R262" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T262" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V262" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X262" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y262" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z262" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA262" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB262" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC262" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD262" s="0" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D263" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I263" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J263" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="K263" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L263" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="M263" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P263" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q263" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R263" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S263" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T263" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U263" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z263" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA263" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC263" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD263" s="0" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D264" s="1" t="n">
+        <v>43480</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G264" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I264" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J264" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K264" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L264" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="M264" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="P264" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q264" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R264" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S264" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z264" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB264" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC264" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD264" s="0" t="n">
+        <v>4.11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="246">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -878,33 +878,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN264"/>
+  <dimension ref="A1:AN280"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A221" activeCellId="0" sqref="A221"/>
-      <selection pane="bottomRight" activeCell="J264" activeCellId="0" sqref="J264"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A248" activeCellId="0" sqref="A248"/>
+      <selection pane="bottomRight" activeCell="J276" activeCellId="0" sqref="J276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.18367346938776"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.18367346938776"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -915,17 +914,17 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.32142857142857"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19928,6 +19927,1280 @@
       </c>
       <c r="AD264" s="0" t="n">
         <v>4.11</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D265" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H265" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I265" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J265" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="K265" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L265" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M265" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="P265" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q265" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R265" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S265" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T265" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U265" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z265" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA265" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC265" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD265" s="0" t="n">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D266" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H266" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I266" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J266" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K266" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="L266" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="P266" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q266" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R266" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S266" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T266" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U266" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z266" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA266" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC266" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD266" s="0" t="n">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D267" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H267" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J267" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K267" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="L267" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M267" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P267" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q267" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R267" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S267" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T267" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U267" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V267" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W267" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z267" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA267" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB267" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC267" s="0" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="AD267" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D268" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H268" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I268" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J268" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K268" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="L268" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M268" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="P268" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q268" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S268" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T268" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U268" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V268" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W268" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z268" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA268" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB268" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC268" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD268" s="0" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D269" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H269" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J269" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K269" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L269" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M269" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="P269" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q269" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R269" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S269" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T269" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U269" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z269" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA269" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC269" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD269" s="0" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D270" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I270" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J270" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="K270" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="L270" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M270" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="P270" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q270" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R270" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S270" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T270" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U270" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V270" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W270" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z270" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA270" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB270" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC270" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD270" s="0" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D271" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H271" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I271" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J271" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K271" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L271" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M271" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="P271" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q271" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R271" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S271" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T271" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U271" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V271" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W271" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X271" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y271" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z271" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA271" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB271" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC271" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD271" s="0" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D272" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H272" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I272" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J272" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K272" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="L272" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M272" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="P272" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S272" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T272" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W272" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X272" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y272" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z272" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA272" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB272" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC272" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD272" s="0" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D273" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I273" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J273" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K273" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="L273" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M273" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="P273" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q273" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S273" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T273" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U273" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V273" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W273" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z273" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA273" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB273" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC273" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD273" s="0" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D274" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G274" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H274" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J274" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K274" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M274" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="P274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q274" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S274" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T274" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W274" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X274" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y274" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z274" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA274" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB274" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC274" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD274" s="0" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D275" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G275" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I275" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J275" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K275" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L275" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="M275" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="P275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q275" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R275" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U275" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z275" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC275" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD275" s="0" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D276" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G276" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H276" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J276" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="K276" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="M276" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="P276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q276" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S276" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U276" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V276" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y276" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z276" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA276" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB276" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC276" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD276" s="0" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D277" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G277" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H277" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J277" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="K277" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="L277" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M277" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q277" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S277" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T277" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V277" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z277" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA277" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB277" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC277" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD277" s="0" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D278" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H278" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I278" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J278" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K278" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L278" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M278" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P278" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q278" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R278" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S278" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T278" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U278" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z278" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA278" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC278" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD278" s="0" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D279" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G279" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H279" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I279" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J279" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="K279" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L279" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="M279" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="P279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q279" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S279" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U279" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V279" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X279" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y279" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z279" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA279" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB279" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC279" s="0" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD279" s="0" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D280" s="1" t="n">
+        <v>43481</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H280" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J280" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K280" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="L280" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M280" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="P280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q280" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S280" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U280" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z280" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA280" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC280" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD280" s="0" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="246">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -878,32 +878,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN280"/>
+  <dimension ref="A1:AN296"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D254" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A248" activeCellId="0" sqref="A248"/>
-      <selection pane="bottomRight" activeCell="J276" activeCellId="0" sqref="J276"/>
+      <selection pane="bottomLeft" activeCell="A254" activeCellId="0" sqref="A254"/>
+      <selection pane="bottomRight" activeCell="E284" activeCellId="0" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.05102040816327"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.05102040816327"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -914,17 +913,16 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="34" min="33" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.36734693877551"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.18367346938776"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18474,6 +18472,12 @@
       <c r="AB245" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="AC245" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD245" s="0" t="n">
+        <v>7.07</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -19158,6 +19162,12 @@
       <c r="AB254" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="AC254" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD254" s="0" t="n">
+        <v>4.73</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -21201,6 +21211,1262 @@
       </c>
       <c r="AD280" s="0" t="n">
         <v>2.18</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D281" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G281" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H281" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J281" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K281" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L281" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="P281" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q281" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R281" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S281" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T281" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U281" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z281" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC281" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD281" s="0" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D282" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H282" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J282" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="K282" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="L282" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M282" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="P282" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q282" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R282" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S282" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T282" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U282" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V282" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W282" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X282" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y282" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z282" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA282" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB282" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC282" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD282" s="0" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D283" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G283" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H283" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J283" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K283" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="M283" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P283" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q283" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R283" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S283" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T283" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC283" s="0" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AD283" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D284" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H284" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J284" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K284" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M284" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="P284" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q284" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R284" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S284" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T284" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U284" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V284" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W284" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X284" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y284" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z284" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA284" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB284" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC284" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD284" s="0" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D285" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H285" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I285" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J285" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K285" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L285" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M285" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="P285" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q285" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R285" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S285" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T285" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U285" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z285" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC285" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD285" s="0" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D286" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G286" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H286" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I286" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J286" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="K286" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L286" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M286" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="P286" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q286" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R286" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S286" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T286" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U286" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z286" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA286" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC286" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD286" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D287" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H287" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J287" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K287" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="L287" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M287" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P287" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q287" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R287" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S287" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T287" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U287" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z287" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC287" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD287" s="0" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D288" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G288" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H288" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I288" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J288" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K288" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L288" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M288" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="P288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q288" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R288" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T288" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V288" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z288" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA288" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB288" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC288" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD288" s="0" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D289" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G289" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H289" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J289" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K289" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L289" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M289" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P289" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q289" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R289" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S289" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T289" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U289" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V289" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W289" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z289" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA289" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB289" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC289" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD289" s="0" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D290" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G290" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H290" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I290" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J290" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K290" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L290" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M290" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="P290" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q290" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R290" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S290" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T290" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U290" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z290" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA290" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC290" s="0" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD290" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D291" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G291" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H291" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I291" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J291" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K291" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="L291" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="M291" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P291" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q291" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R291" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S291" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T291" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U291" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V291" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W291" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z291" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA291" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB291" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC291" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD291" s="0" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D292" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G292" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H292" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I292" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J292" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="K292" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L292" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="M292" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="P292" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q292" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R292" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S292" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T292" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U292" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z292" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA292" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC292" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD292" s="0" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D293" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H293" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I293" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J293" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="K293" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L293" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="M293" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="P293" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q293" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R293" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S293" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T293" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U293" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V293" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W293" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z293" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA293" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB293" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC293" s="0" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD293" s="0" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D294" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H294" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I294" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J294" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="K294" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L294" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="M294" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P294" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S294" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T294" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V294" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X294" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y294" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z294" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA294" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB294" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC294" s="0" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AD294" s="0" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D295" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H295" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I295" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J295" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K295" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L295" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="M295" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P295" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q295" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R295" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S295" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T295" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U295" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V295" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W295" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X295" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y295" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z295" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA295" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB295" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC295" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD295" s="0" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D296" s="1" t="n">
+        <v>43482</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H296" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I296" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J296" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K296" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L296" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="M296" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="P296" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q296" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R296" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S296" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T296" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U296" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z296" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC296" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD296" s="0" t="n">
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2019.xlsx
+++ b/Data/2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="247">
   <si>
     <t xml:space="preserve">ATP</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zverev M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Round</t>
   </si>
 </sst>
 </file>
@@ -878,31 +881,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN296"/>
+  <dimension ref="A1:AN304"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D263" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A254" activeCellId="0" sqref="A254"/>
-      <selection pane="bottomRight" activeCell="E284" activeCellId="0" sqref="E284"/>
+      <selection pane="bottomLeft" activeCell="A263" activeCellId="0" sqref="A263"/>
+      <selection pane="bottomRight" activeCell="K308" activeCellId="0" sqref="K308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.91326530612245"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.91326530612245"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.23979591836735"/>
@@ -913,16 +917,17 @@
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.23979591836735"/>
     <col collapsed="false" hidden="false" max="27" min="26" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="34" min="33" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.05102040816327"/>
     <col collapsed="false" hidden="false" max="40" min="39" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22467,6 +22472,634 @@
       </c>
       <c r="AD296" s="0" t="n">
         <v>3.08</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D297" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H297" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I297" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J297" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="K297" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="L297" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="P297" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q297" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R297" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S297" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T297" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U297" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z297" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA297" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC297" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD297" s="0" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D298" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H298" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I298" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J298" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K298" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="L298" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P298" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q298" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R298" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S298" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T298" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U298" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z298" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB298" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC298" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD298" s="0" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D299" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G299" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H299" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I299" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J299" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K299" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L299" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M299" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="P299" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R299" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U299" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V299" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y299" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z299" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA299" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB299" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC299" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD299" s="0" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D300" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H300" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I300" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J300" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K300" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L300" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M300" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P300" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q300" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R300" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S300" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T300" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U300" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z300" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA300" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB300" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC300" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD300" s="0" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D301" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G301" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H301" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I301" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J301" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="K301" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="L301" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M301" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q301" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R301" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T301" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W301" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z301" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB301" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC301" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD301" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D302" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H302" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I302" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J302" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K302" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="L302" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="M302" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P302" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q302" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R302" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S302" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T302" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U302" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V302" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W302" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z302" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB302" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC302" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD302" s="0" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D303" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G303" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H303" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I303" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J303" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K303" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="L303" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M303" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="P303" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q303" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R303" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S303" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T303" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U303" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z303" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA303" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB303" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC303" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD303" s="0" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D304" s="1" t="n">
+        <v>43483</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G304" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H304" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="I304" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J304" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K304" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L304" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M304" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="P304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q304" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S304" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T304" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W304" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X304" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y304" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z304" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA304" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB304" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC304" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD304" s="0" t="n">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
